--- a/results/mp/logistic/corona/confidence/84/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -67,67 +67,73 @@
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>safe</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>join</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>join</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -488,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,7 +505,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -557,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7191780821917808</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,19 +581,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -599,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -607,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4497354497354497</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C4">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -649,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -657,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3488372093023256</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C5">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D5">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -707,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2281879194630873</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +763,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8459530026109661</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L7">
-        <v>324</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>324</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -783,13 +789,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8125</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L8">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="M8">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -809,13 +815,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -835,13 +841,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -861,13 +867,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8018867924528302</v>
+        <v>0.7890625</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -879,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -887,13 +893,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7804878048780488</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -905,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -913,13 +919,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -931,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -939,13 +945,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7746478873239436</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -957,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -965,13 +971,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7659574468085106</v>
+        <v>0.7625</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -983,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -991,13 +997,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1009,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1017,13 +1023,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1035,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1043,13 +1049,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6744186046511628</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1069,13 +1075,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.66</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1087,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1095,13 +1101,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6507936507936508</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1113,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1121,13 +1127,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6323529411764706</v>
+        <v>0.625</v>
       </c>
       <c r="L21">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1139,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>125</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1147,13 +1153,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5690376569037657</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L22">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M22">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1165,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1173,13 +1179,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5638297872340425</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L23">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="M23">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1191,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1199,13 +1205,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5389830508474577</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L24">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1217,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1225,13 +1231,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5384615384615384</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1243,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1251,13 +1257,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5285714285714286</v>
+        <v>0.54</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1269,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1277,13 +1283,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4606741573033708</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1295,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1303,13 +1309,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.358974358974359</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1321,7 +1327,59 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>50</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.3424657534246575</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
